--- a/SQL/sources/02dev1/Index개념.xlsx
+++ b/SQL/sources/02dev1/Index개념.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Jini\git\CodingLearnEdu\SQL\sources\02dev1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FBAFE17-3104-499C-B366-8BDB28E23BF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38217B67-3C47-432B-B9C9-2F06618FB7DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="12825" xr2:uid="{8F8BA44C-D522-4A01-9490-ECCF0FD762CA}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="29040" windowHeight="15525" xr2:uid="{8F8BA44C-D522-4A01-9490-ECCF0FD762CA}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="40">
   <si>
     <t>ccc</t>
   </si>
@@ -136,6 +136,15 @@
   </si>
   <si>
     <t>(별도로 위와 같은 두 개의 구조를 생성한다)</t>
+  </si>
+  <si>
+    <t>101:2 수정</t>
+  </si>
+  <si>
+    <t>Data 가 기본적으로 저장되는 방법</t>
+  </si>
+  <si>
+    <t>page</t>
   </si>
 </sst>
 </file>
@@ -324,7 +333,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -335,15 +344,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
@@ -353,16 +356,21 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -493,13 +501,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>9526</xdr:colOff>
+      <xdr:colOff>38101</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:colOff>28576</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>123824</xdr:rowOff>
     </xdr:to>
@@ -516,7 +524,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="3248026" y="1447801"/>
+          <a:off x="3276601" y="1438276"/>
           <a:ext cx="4962525" cy="9523"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -542,6 +550,448 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5447ED83-3AA6-74AC-EB0F-2194B34AAF6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876800" y="6743700"/>
+          <a:ext cx="971550" cy="600075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>8k</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> size disc</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>493394</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>74294</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{932264AE-A70D-0106-73CB-BD4A2795A9DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7343775" y="6124575"/>
+          <a:ext cx="45719" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FAB02CA-A910-9C9E-93AB-23470B28B35C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5276850" y="7000875"/>
+          <a:ext cx="971550" cy="600075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>8k</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> size disc</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28B5A9A0-3954-4419-45A9-D28AA290787A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5667375" y="7258050"/>
+          <a:ext cx="971550" cy="600075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>8k</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> size disc</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BA044BD-0892-8252-A07B-E5789FB1D087}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6086475" y="7543800"/>
+          <a:ext cx="971550" cy="600075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>8k</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> size disc</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{586A0AB9-16AE-2565-ACDC-C383DFABB5A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6438900" y="7800975"/>
+          <a:ext cx="971550" cy="600075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>8k</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> size disc</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -844,17 +1294,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F44F06D-527F-497F-941C-32D92996159C}">
-  <dimension ref="A1:W27"/>
+  <dimension ref="A1:W33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="12" max="12" width="10.5703125" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="11"/>
+    <col min="15" max="15" width="9.140625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
@@ -899,27 +1349,27 @@
       <c r="D5" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="N5" s="21" t="s">
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="N5" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="O5" s="22"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="21"/>
-      <c r="U5" s="21"/>
-      <c r="V5" s="21"/>
-      <c r="W5" s="21"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="O5" s="20"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
+    </row>
+    <row r="6" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>7</v>
       </c>
@@ -929,25 +1379,25 @@
       <c r="D6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="N6" s="23" t="s">
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="N6" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="O6" s="22"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="21"/>
-      <c r="U6" s="21"/>
-      <c r="V6" s="21"/>
-      <c r="W6" s="21"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="19"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
@@ -956,29 +1406,29 @@
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="30">
         <v>101</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="H7" s="14">
+      <c r="E7" s="30"/>
+      <c r="H7" s="28">
         <v>101</v>
       </c>
-      <c r="I7" s="14"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="N7" s="24">
+      <c r="I7" s="28"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="N7" s="29">
         <v>201</v>
       </c>
-      <c r="O7" s="24"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="21"/>
-      <c r="U7" s="21"/>
-      <c r="V7" s="21"/>
-      <c r="W7" s="21"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
@@ -993,29 +1443,29 @@
       <c r="E8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="13">
         <v>1</v>
       </c>
-      <c r="I8" s="16" t="s">
+      <c r="I8" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="N8" s="25">
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="N8" s="22">
         <v>1</v>
       </c>
-      <c r="O8" s="26" t="s">
+      <c r="O8" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
-      <c r="S8" s="21"/>
-      <c r="T8" s="21"/>
-      <c r="U8" s="21"/>
-      <c r="V8" s="21"/>
-      <c r="W8" s="21"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="19"/>
+      <c r="V8" s="19"/>
+      <c r="W8" s="19"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -1030,29 +1480,29 @@
       <c r="E9" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="13">
         <v>5</v>
       </c>
-      <c r="I9" s="16" t="s">
+      <c r="I9" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="N9" s="25">
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="N9" s="22">
         <v>5</v>
       </c>
-      <c r="O9" s="26" t="s">
+      <c r="O9" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21"/>
-      <c r="S9" s="21"/>
-      <c r="T9" s="21"/>
-      <c r="U9" s="21"/>
-      <c r="V9" s="21"/>
-      <c r="W9" s="21"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="19"/>
+      <c r="W9" s="19"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -1067,29 +1517,29 @@
       <c r="E10" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="15">
         <v>6</v>
       </c>
-      <c r="I10" s="18" t="s">
+      <c r="I10" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="N10" s="27">
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="N10" s="24">
         <v>6</v>
       </c>
-      <c r="O10" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="21"/>
-      <c r="S10" s="21"/>
-      <c r="T10" s="21"/>
-      <c r="U10" s="21"/>
-      <c r="V10" s="21"/>
-      <c r="W10" s="21"/>
+      <c r="O10" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19"/>
+      <c r="V10" s="19"/>
+      <c r="W10" s="19"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -1098,21 +1548,21 @@
       <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="21"/>
-      <c r="T11" s="21"/>
-      <c r="U11" s="21"/>
-      <c r="V11" s="21"/>
-      <c r="W11" s="21"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
+      <c r="W11" s="19"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
@@ -1121,33 +1571,33 @@
       <c r="B12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="30">
         <v>102</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="H12" s="14">
+      <c r="E12" s="30"/>
+      <c r="H12" s="28">
         <v>102</v>
       </c>
-      <c r="I12" s="14"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="14">
+      <c r="I12" s="28"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="28">
         <v>201</v>
       </c>
-      <c r="L12" s="14"/>
-      <c r="N12" s="24">
+      <c r="L12" s="28"/>
+      <c r="N12" s="29">
         <v>202</v>
       </c>
-      <c r="O12" s="24"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="24">
+      <c r="O12" s="29"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="29">
         <v>301</v>
       </c>
-      <c r="R12" s="24"/>
-      <c r="S12" s="21"/>
-      <c r="T12" s="21"/>
-      <c r="U12" s="21"/>
-      <c r="V12" s="21"/>
-      <c r="W12" s="21"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="19"/>
+      <c r="W12" s="19"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
@@ -1162,37 +1612,37 @@
       <c r="E13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="17">
         <v>7</v>
       </c>
-      <c r="I13" s="19" t="s">
+      <c r="I13" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="J13" s="12"/>
-      <c r="K13" s="19">
+      <c r="J13" s="11"/>
+      <c r="K13" s="17">
         <v>1</v>
       </c>
-      <c r="L13" s="19">
+      <c r="L13" s="17">
         <v>101</v>
       </c>
-      <c r="N13" s="29">
+      <c r="N13" s="25">
         <v>7</v>
       </c>
-      <c r="O13" s="30" t="s">
+      <c r="O13" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="29">
+      <c r="P13" s="19"/>
+      <c r="Q13" s="25">
         <v>1</v>
       </c>
-      <c r="R13" s="29">
+      <c r="R13" s="25">
         <v>201</v>
       </c>
-      <c r="S13" s="21"/>
-      <c r="T13" s="21"/>
-      <c r="U13" s="21"/>
-      <c r="V13" s="21"/>
-      <c r="W13" s="21"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="19"/>
+      <c r="V13" s="19"/>
+      <c r="W13" s="19"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
@@ -1207,37 +1657,37 @@
       <c r="E14" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H14" s="17">
         <v>11</v>
       </c>
-      <c r="I14" s="19" t="s">
+      <c r="I14" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="J14" s="12"/>
-      <c r="K14" s="19">
+      <c r="J14" s="11"/>
+      <c r="K14" s="17">
         <v>7</v>
       </c>
-      <c r="L14" s="19">
+      <c r="L14" s="17">
         <v>102</v>
       </c>
-      <c r="N14" s="29">
+      <c r="N14" s="25">
         <v>11</v>
       </c>
-      <c r="O14" s="30" t="s">
+      <c r="O14" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="29">
+      <c r="P14" s="19"/>
+      <c r="Q14" s="25">
         <v>7</v>
       </c>
-      <c r="R14" s="29">
+      <c r="R14" s="25">
         <v>202</v>
       </c>
-      <c r="S14" s="21"/>
-      <c r="T14" s="21"/>
-      <c r="U14" s="21"/>
-      <c r="V14" s="21"/>
-      <c r="W14" s="21"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="19"/>
+      <c r="V14" s="19"/>
+      <c r="W14" s="19"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
@@ -1248,93 +1698,93 @@
       <c r="E15" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H15" s="19">
+      <c r="H15" s="17">
         <v>15</v>
       </c>
-      <c r="I15" s="19" t="s">
+      <c r="I15" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="J15" s="12"/>
-      <c r="K15" s="19">
+      <c r="J15" s="11"/>
+      <c r="K15" s="17">
         <v>23</v>
       </c>
-      <c r="L15" s="19">
+      <c r="L15" s="17">
         <v>103</v>
       </c>
-      <c r="N15" s="29">
+      <c r="N15" s="25">
         <v>15</v>
       </c>
-      <c r="O15" s="30" t="s">
+      <c r="O15" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="29">
+      <c r="P15" s="19"/>
+      <c r="Q15" s="25">
         <v>23</v>
       </c>
-      <c r="R15" s="29">
+      <c r="R15" s="25">
         <v>203</v>
       </c>
-      <c r="S15" s="21"/>
-      <c r="T15" s="21"/>
-      <c r="U15" s="21"/>
-      <c r="V15" s="21"/>
-      <c r="W15" s="21"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="19"/>
+      <c r="U15" s="19"/>
+      <c r="V15" s="19"/>
+      <c r="W15" s="19"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="19">
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="17">
         <v>77</v>
       </c>
-      <c r="L16" s="19">
+      <c r="L16" s="17">
         <v>104</v>
       </c>
-      <c r="N16" s="21"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="29">
+      <c r="N16" s="19"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="25">
         <v>77</v>
       </c>
-      <c r="R16" s="29">
+      <c r="R16" s="25">
         <v>204</v>
       </c>
-      <c r="S16" s="21"/>
-      <c r="T16" s="21"/>
-      <c r="U16" s="21"/>
-      <c r="V16" s="21"/>
-      <c r="W16" s="21"/>
+      <c r="S16" s="19"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="19"/>
+      <c r="V16" s="19"/>
+      <c r="W16" s="19"/>
     </row>
     <row r="17" spans="4:23" x14ac:dyDescent="0.25">
-      <c r="D17" s="10">
+      <c r="D17" s="30">
         <v>103</v>
       </c>
-      <c r="E17" s="10"/>
-      <c r="H17" s="14">
+      <c r="E17" s="30"/>
+      <c r="H17" s="28">
         <v>103</v>
       </c>
-      <c r="I17" s="14"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="20" t="s">
+      <c r="I17" s="28"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="L17" s="12"/>
-      <c r="N17" s="24">
+      <c r="L17" s="11"/>
+      <c r="N17" s="29">
         <v>203</v>
       </c>
-      <c r="O17" s="24"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="31" t="s">
+      <c r="O17" s="29"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="R17" s="21"/>
-      <c r="S17" s="21"/>
-      <c r="T17" s="21"/>
-      <c r="U17" s="21"/>
-      <c r="V17" s="21"/>
-      <c r="W17" s="21"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="19"/>
+      <c r="V17" s="19"/>
+      <c r="W17" s="19"/>
     </row>
     <row r="18" spans="4:23" x14ac:dyDescent="0.25">
       <c r="D18" s="3">
@@ -1343,29 +1793,29 @@
       <c r="E18" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H18" s="19">
+      <c r="H18" s="17">
         <v>23</v>
       </c>
-      <c r="I18" s="19" t="s">
+      <c r="I18" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="N18" s="29">
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="N18" s="25">
         <v>23</v>
       </c>
-      <c r="O18" s="30" t="s">
+      <c r="O18" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="21"/>
-      <c r="R18" s="21"/>
-      <c r="S18" s="21"/>
-      <c r="T18" s="21"/>
-      <c r="U18" s="21"/>
-      <c r="V18" s="21"/>
-      <c r="W18" s="21"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="19"/>
+      <c r="V18" s="19"/>
+      <c r="W18" s="19"/>
     </row>
     <row r="19" spans="4:23" x14ac:dyDescent="0.25">
       <c r="D19" s="5">
@@ -1374,29 +1824,29 @@
       <c r="E19" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="19">
+      <c r="H19" s="17">
         <v>26</v>
       </c>
-      <c r="I19" s="19" t="s">
+      <c r="I19" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="N19" s="29">
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="N19" s="25">
         <v>26</v>
       </c>
-      <c r="O19" s="30" t="s">
+      <c r="O19" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="21"/>
-      <c r="R19" s="21"/>
-      <c r="S19" s="21"/>
-      <c r="T19" s="21"/>
-      <c r="U19" s="21"/>
-      <c r="V19" s="21"/>
-      <c r="W19" s="21"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="19"/>
+      <c r="V19" s="19"/>
+      <c r="W19" s="19"/>
     </row>
     <row r="20" spans="4:23" x14ac:dyDescent="0.25">
       <c r="D20" s="7">
@@ -1405,71 +1855,71 @@
       <c r="E20" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H20" s="19">
+      <c r="H20" s="17">
         <v>27</v>
       </c>
-      <c r="I20" s="19" t="s">
+      <c r="I20" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="N20" s="29">
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="N20" s="25">
         <v>27</v>
       </c>
-      <c r="O20" s="30" t="s">
+      <c r="O20" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="21"/>
-      <c r="R20" s="21"/>
-      <c r="S20" s="21"/>
-      <c r="T20" s="21"/>
-      <c r="U20" s="21"/>
-      <c r="V20" s="21"/>
-      <c r="W20" s="21"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="19"/>
+      <c r="U20" s="19"/>
+      <c r="V20" s="19"/>
+      <c r="W20" s="19"/>
     </row>
     <row r="21" spans="4:23" x14ac:dyDescent="0.25">
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="22"/>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="21"/>
-      <c r="R21" s="21"/>
-      <c r="S21" s="21"/>
-      <c r="T21" s="21"/>
-      <c r="U21" s="21"/>
-      <c r="V21" s="21"/>
-      <c r="W21" s="21"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="19"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="19"/>
+      <c r="V21" s="19"/>
+      <c r="W21" s="19"/>
     </row>
     <row r="22" spans="4:23" x14ac:dyDescent="0.25">
-      <c r="D22" s="10">
+      <c r="D22" s="30">
         <v>104</v>
       </c>
-      <c r="E22" s="10"/>
-      <c r="H22" s="14">
+      <c r="E22" s="30"/>
+      <c r="H22" s="28">
         <v>104</v>
       </c>
-      <c r="I22" s="14"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="N22" s="24">
+      <c r="I22" s="28"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="N22" s="29">
         <v>204</v>
       </c>
-      <c r="O22" s="24"/>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="21"/>
-      <c r="R22" s="21"/>
-      <c r="S22" s="21"/>
-      <c r="T22" s="21"/>
-      <c r="U22" s="21"/>
-      <c r="V22" s="21"/>
-      <c r="W22" s="21"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="19"/>
+      <c r="T22" s="19"/>
+      <c r="U22" s="19"/>
+      <c r="V22" s="19"/>
+      <c r="W22" s="19"/>
     </row>
     <row r="23" spans="4:23" x14ac:dyDescent="0.25">
       <c r="D23" s="3">
@@ -1478,29 +1928,29 @@
       <c r="E23" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H23" s="19">
+      <c r="H23" s="17">
         <v>77</v>
       </c>
-      <c r="I23" s="19" t="s">
+      <c r="I23" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="N23" s="29">
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="N23" s="25">
         <v>77</v>
       </c>
-      <c r="O23" s="30" t="s">
+      <c r="O23" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="21"/>
-      <c r="R23" s="21"/>
-      <c r="S23" s="21"/>
-      <c r="T23" s="21"/>
-      <c r="U23" s="21"/>
-      <c r="V23" s="21"/>
-      <c r="W23" s="21"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="19"/>
+      <c r="S23" s="19"/>
+      <c r="T23" s="19"/>
+      <c r="U23" s="19"/>
+      <c r="V23" s="19"/>
+      <c r="W23" s="19"/>
     </row>
     <row r="24" spans="4:23" x14ac:dyDescent="0.25">
       <c r="D24" s="5">
@@ -1509,29 +1959,29 @@
       <c r="E24" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H24" s="19">
+      <c r="H24" s="17">
         <v>88</v>
       </c>
-      <c r="I24" s="19" t="s">
+      <c r="I24" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="N24" s="29">
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="N24" s="25">
         <v>88</v>
       </c>
-      <c r="O24" s="30" t="s">
+      <c r="O24" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="21"/>
-      <c r="R24" s="21"/>
-      <c r="S24" s="21"/>
-      <c r="T24" s="21"/>
-      <c r="U24" s="21"/>
-      <c r="V24" s="21"/>
-      <c r="W24" s="21"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="19"/>
+      <c r="S24" s="19"/>
+      <c r="T24" s="19"/>
+      <c r="U24" s="19"/>
+      <c r="V24" s="19"/>
+      <c r="W24" s="19"/>
     </row>
     <row r="25" spans="4:23" x14ac:dyDescent="0.25">
       <c r="D25" s="7">
@@ -1540,79 +1990,82 @@
       <c r="E25" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H25" s="19">
+      <c r="H25" s="17">
         <v>95</v>
       </c>
-      <c r="I25" s="19" t="s">
+      <c r="I25" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="N25" s="29">
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="N25" s="25">
         <v>95</v>
       </c>
-      <c r="O25" s="30" t="s">
+      <c r="O25" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="P25" s="21"/>
-      <c r="Q25" s="21"/>
-      <c r="R25" s="21"/>
-      <c r="S25" s="21"/>
-      <c r="T25" s="21"/>
-      <c r="U25" s="21"/>
-      <c r="V25" s="21"/>
-      <c r="W25" s="21"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="19"/>
+      <c r="S25" s="19"/>
+      <c r="T25" s="19"/>
+      <c r="U25" s="19"/>
+      <c r="V25" s="19"/>
+      <c r="W25" s="19"/>
     </row>
     <row r="26" spans="4:23" x14ac:dyDescent="0.25">
-      <c r="H26" s="20" t="s">
+      <c r="H26" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="N26" s="31" t="s">
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="N26" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="O26" s="22"/>
-      <c r="P26" s="21"/>
-      <c r="Q26" s="21"/>
-      <c r="R26" s="21"/>
-      <c r="S26" s="21"/>
-      <c r="T26" s="21"/>
-      <c r="U26" s="21"/>
-      <c r="V26" s="21"/>
-      <c r="W26" s="21"/>
+      <c r="O26" s="20"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="19"/>
+      <c r="S26" s="19"/>
+      <c r="T26" s="19"/>
+      <c r="U26" s="19"/>
+      <c r="V26" s="19"/>
+      <c r="W26" s="19"/>
     </row>
     <row r="27" spans="4:23" x14ac:dyDescent="0.25">
-      <c r="H27" s="12" t="s">
+      <c r="H27" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="N27" s="21" t="s">
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="N27" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="O27" s="22"/>
-      <c r="P27" s="21"/>
-      <c r="Q27" s="21"/>
-      <c r="R27" s="21"/>
-      <c r="S27" s="21"/>
-      <c r="T27" s="21"/>
-      <c r="U27" s="21"/>
-      <c r="V27" s="21"/>
-      <c r="W27" s="21"/>
+      <c r="O27" s="20"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="19"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="19"/>
+      <c r="V27" s="19"/>
+      <c r="W27" s="19"/>
+    </row>
+    <row r="33" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G33" t="s">
+        <v>38</v>
+      </c>
+      <c r="K33" t="s">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N22:O22"/>
     <mergeCell ref="Q12:R12"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D12:E12"/>
@@ -1622,6 +2075,11 @@
     <mergeCell ref="H12:I12"/>
     <mergeCell ref="H17:I17"/>
     <mergeCell ref="H22:I22"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N22:O22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
